--- a/biology/Histoire de la zoologie et de la botanique/Jules_de_Christol/Jules_de_Christol.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jules_de_Christol/Jules_de_Christol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jules de Christol, né le 15 août 1802 à Montpellier et mort le 25 juin 1861 à Montpellier, est un paléontologue et préhistorien français.
 </t>
@@ -511,7 +523,9 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À la Faculté des sciences de Montpellier, Jules de Christol est l'élève de Marcel de Serres.
 </t>
@@ -542,7 +556,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Jules de Christol a été professeur de zoologie à l'Athénée royal de Marseille.
 </t>
@@ -573,7 +589,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Jules de Christol est l'un des premiers préhistoriens à montrer la coexistence entre l'homme fossile et des animaux disparus. Seul Paul Tournal le précède d'une petite année. Il précède de près de vingt ans les travaux plus connus de Jacques Boucher de Perthes et de Jean-Baptiste Noulet. Bien qu'appuyées par Marcel de Serres, ses découvertes ont du mal a passer dans les milieux conservateurs de l'époque.
 </t>
@@ -604,10 +622,12 @@
           <t>Organismes et associations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Jules de Christol est l'un des membres fondateurs des Annales des sciences du Midi. Il fut secrétaire de la Société d'histoire naturelle de Montpellier.
-Il est élu le 14 juillet 1837 correspondant à l'Académie des sciences, belles-lettres et arts de Savoie[1],[2].
+Il est élu le 14 juillet 1837 correspondant à l'Académie des sciences, belles-lettres et arts de Savoie,.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Note sur les ossemens humains des cavernes du département du Gard, Montpellier, 1828.
 Notice sur les ossements humains fossiles des cavernes du département du Gard. Montpellier, 1829.
